--- a/EXPORT_DATA/Tariff_2021_02.xlsx
+++ b/EXPORT_DATA/Tariff_2021_02.xlsx
@@ -16,12 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Фактический ЧПН</t>
+  </si>
+  <si>
+    <t>2021-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-02 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-18 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-19 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-20 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-24 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-25 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-26 00:00:00</t>
   </si>
   <si>
     <t>Стоимость мощности (₽/МВт)</t>
@@ -34,9 +91,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -90,13 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,152 +461,152 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>44228</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>44229</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>44230</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>44231</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>44232</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>44235</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>44236</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>44237</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>44238</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>44239</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>44242</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>44243</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>44244</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>44245</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>44246</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>44247</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>44251</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>44252</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>44253</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -575,12 +630,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>44228</v>
       </c>
       <c r="B2">
         <v>812867.45</v>
@@ -604,11 +659,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44228</v>
       </c>
       <c r="B2">
@@ -616,7 +671,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44228.04166666666</v>
       </c>
       <c r="B3">
@@ -624,7 +679,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44228.08333333334</v>
       </c>
       <c r="B4">
@@ -632,7 +687,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44228.125</v>
       </c>
       <c r="B5">
@@ -640,7 +695,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44228.16666666666</v>
       </c>
       <c r="B6">
@@ -648,7 +703,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44228.20833333334</v>
       </c>
       <c r="B7">
@@ -656,7 +711,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44228.25</v>
       </c>
       <c r="B8">
@@ -664,7 +719,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44228.29166666666</v>
       </c>
       <c r="B9">
@@ -672,7 +727,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44228.33333333334</v>
       </c>
       <c r="B10">
@@ -680,7 +735,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44228.375</v>
       </c>
       <c r="B11">
@@ -688,7 +743,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44228.41666666666</v>
       </c>
       <c r="B12">
@@ -696,7 +751,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44228.45833333334</v>
       </c>
       <c r="B13">
@@ -704,7 +759,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44228.5</v>
       </c>
       <c r="B14">
@@ -712,7 +767,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44228.54166666666</v>
       </c>
       <c r="B15">
@@ -720,7 +775,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44228.58333333334</v>
       </c>
       <c r="B16">
@@ -728,7 +783,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>44228.625</v>
       </c>
       <c r="B17">
@@ -736,7 +791,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>44228.66666666666</v>
       </c>
       <c r="B18">
@@ -744,7 +799,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44228.70833333334</v>
       </c>
       <c r="B19">
@@ -752,7 +807,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44228.75</v>
       </c>
       <c r="B20">
@@ -760,7 +815,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44228.79166666666</v>
       </c>
       <c r="B21">
@@ -768,7 +823,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44228.83333333334</v>
       </c>
       <c r="B22">
@@ -776,7 +831,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>44228.875</v>
       </c>
       <c r="B23">
@@ -784,7 +839,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>44228.91666666666</v>
       </c>
       <c r="B24">
@@ -792,7 +847,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>44228.95833333334</v>
       </c>
       <c r="B25">
@@ -800,7 +855,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44229</v>
       </c>
       <c r="B26">
@@ -808,7 +863,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>44229.04166666666</v>
       </c>
       <c r="B27">
@@ -816,7 +871,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>44229.08333333334</v>
       </c>
       <c r="B28">
@@ -824,7 +879,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>44229.125</v>
       </c>
       <c r="B29">
@@ -832,7 +887,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>44229.16666666666</v>
       </c>
       <c r="B30">
@@ -840,7 +895,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>44229.20833333334</v>
       </c>
       <c r="B31">
@@ -848,7 +903,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>44229.25</v>
       </c>
       <c r="B32">
@@ -856,7 +911,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>44229.29166666666</v>
       </c>
       <c r="B33">
@@ -864,7 +919,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>44229.33333333334</v>
       </c>
       <c r="B34">
@@ -872,7 +927,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>44229.375</v>
       </c>
       <c r="B35">
@@ -880,7 +935,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>44229.41666666666</v>
       </c>
       <c r="B36">
@@ -888,7 +943,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>44229.45833333334</v>
       </c>
       <c r="B37">
@@ -896,7 +951,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>44229.5</v>
       </c>
       <c r="B38">
@@ -904,7 +959,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>44229.54166666666</v>
       </c>
       <c r="B39">
@@ -912,7 +967,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>44229.58333333334</v>
       </c>
       <c r="B40">
@@ -920,7 +975,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>44229.625</v>
       </c>
       <c r="B41">
@@ -928,7 +983,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>44229.66666666666</v>
       </c>
       <c r="B42">
@@ -936,7 +991,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>44229.70833333334</v>
       </c>
       <c r="B43">
@@ -944,7 +999,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>44229.75</v>
       </c>
       <c r="B44">
@@ -952,7 +1007,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44229.79166666666</v>
       </c>
       <c r="B45">
@@ -960,7 +1015,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>44229.83333333334</v>
       </c>
       <c r="B46">
@@ -968,7 +1023,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>44229.875</v>
       </c>
       <c r="B47">
@@ -976,7 +1031,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>44229.91666666666</v>
       </c>
       <c r="B48">
@@ -984,7 +1039,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>44229.95833333334</v>
       </c>
       <c r="B49">
@@ -992,7 +1047,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>44230</v>
       </c>
       <c r="B50">
@@ -1000,7 +1055,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>44230.04166666666</v>
       </c>
       <c r="B51">
@@ -1008,7 +1063,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>44230.08333333334</v>
       </c>
       <c r="B52">
@@ -1016,7 +1071,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>44230.125</v>
       </c>
       <c r="B53">
@@ -1024,7 +1079,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>44230.16666666666</v>
       </c>
       <c r="B54">
@@ -1032,7 +1087,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>44230.20833333334</v>
       </c>
       <c r="B55">
@@ -1040,7 +1095,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>44230.25</v>
       </c>
       <c r="B56">
@@ -1048,7 +1103,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>44230.29166666666</v>
       </c>
       <c r="B57">
@@ -1056,7 +1111,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>44230.33333333334</v>
       </c>
       <c r="B58">
@@ -1064,7 +1119,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>44230.375</v>
       </c>
       <c r="B59">
@@ -1072,7 +1127,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>44230.41666666666</v>
       </c>
       <c r="B60">
@@ -1080,7 +1135,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>44230.45833333334</v>
       </c>
       <c r="B61">
@@ -1088,7 +1143,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>44230.5</v>
       </c>
       <c r="B62">
@@ -1096,7 +1151,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>44230.54166666666</v>
       </c>
       <c r="B63">
@@ -1104,7 +1159,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>44230.58333333334</v>
       </c>
       <c r="B64">
@@ -1112,7 +1167,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>44230.625</v>
       </c>
       <c r="B65">
@@ -1120,7 +1175,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>44230.66666666666</v>
       </c>
       <c r="B66">
@@ -1128,7 +1183,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>44230.70833333334</v>
       </c>
       <c r="B67">
@@ -1136,7 +1191,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>44230.75</v>
       </c>
       <c r="B68">
@@ -1144,7 +1199,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>44230.79166666666</v>
       </c>
       <c r="B69">
@@ -1152,7 +1207,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>44230.83333333334</v>
       </c>
       <c r="B70">
@@ -1160,7 +1215,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>44230.875</v>
       </c>
       <c r="B71">
@@ -1168,7 +1223,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>44230.91666666666</v>
       </c>
       <c r="B72">
@@ -1176,7 +1231,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>44230.95833333334</v>
       </c>
       <c r="B73">
@@ -1184,7 +1239,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>44231</v>
       </c>
       <c r="B74">
@@ -1192,7 +1247,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>44231.04166666666</v>
       </c>
       <c r="B75">
@@ -1200,7 +1255,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>44231.08333333334</v>
       </c>
       <c r="B76">
@@ -1208,7 +1263,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>44231.125</v>
       </c>
       <c r="B77">
@@ -1216,7 +1271,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>44231.16666666666</v>
       </c>
       <c r="B78">
@@ -1224,7 +1279,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>44231.20833333334</v>
       </c>
       <c r="B79">
@@ -1232,7 +1287,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>44231.25</v>
       </c>
       <c r="B80">
@@ -1240,7 +1295,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>44231.29166666666</v>
       </c>
       <c r="B81">
@@ -1248,7 +1303,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>44231.33333333334</v>
       </c>
       <c r="B82">
@@ -1256,7 +1311,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>44231.375</v>
       </c>
       <c r="B83">
@@ -1264,7 +1319,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>44231.41666666666</v>
       </c>
       <c r="B84">
@@ -1272,7 +1327,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>44231.45833333334</v>
       </c>
       <c r="B85">
@@ -1280,7 +1335,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>44231.5</v>
       </c>
       <c r="B86">
@@ -1288,7 +1343,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>44231.54166666666</v>
       </c>
       <c r="B87">
@@ -1296,7 +1351,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>44231.58333333334</v>
       </c>
       <c r="B88">
@@ -1304,7 +1359,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>44231.625</v>
       </c>
       <c r="B89">
@@ -1312,7 +1367,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>44231.66666666666</v>
       </c>
       <c r="B90">
@@ -1320,7 +1375,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>44231.70833333334</v>
       </c>
       <c r="B91">
@@ -1328,7 +1383,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>44231.75</v>
       </c>
       <c r="B92">
@@ -1336,7 +1391,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>44231.79166666666</v>
       </c>
       <c r="B93">
@@ -1344,7 +1399,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>44231.83333333334</v>
       </c>
       <c r="B94">
@@ -1352,7 +1407,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>44231.875</v>
       </c>
       <c r="B95">
@@ -1360,7 +1415,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>44231.91666666666</v>
       </c>
       <c r="B96">
@@ -1368,7 +1423,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>44231.95833333334</v>
       </c>
       <c r="B97">
@@ -1376,7 +1431,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>44232</v>
       </c>
       <c r="B98">
@@ -1384,7 +1439,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>44232.04166666666</v>
       </c>
       <c r="B99">
@@ -1392,7 +1447,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>44232.08333333334</v>
       </c>
       <c r="B100">
@@ -1400,7 +1455,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>44232.125</v>
       </c>
       <c r="B101">
@@ -1408,7 +1463,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>44232.16666666666</v>
       </c>
       <c r="B102">
@@ -1416,7 +1471,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>44232.20833333334</v>
       </c>
       <c r="B103">
@@ -1424,7 +1479,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>44232.25</v>
       </c>
       <c r="B104">
@@ -1432,7 +1487,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>44232.29166666666</v>
       </c>
       <c r="B105">
@@ -1440,7 +1495,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>44232.33333333334</v>
       </c>
       <c r="B106">
@@ -1448,7 +1503,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>44232.375</v>
       </c>
       <c r="B107">
@@ -1456,7 +1511,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>44232.41666666666</v>
       </c>
       <c r="B108">
@@ -1464,7 +1519,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>44232.45833333334</v>
       </c>
       <c r="B109">
@@ -1472,7 +1527,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>44232.5</v>
       </c>
       <c r="B110">
@@ -1480,7 +1535,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>44232.54166666666</v>
       </c>
       <c r="B111">
@@ -1488,7 +1543,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>44232.58333333334</v>
       </c>
       <c r="B112">
@@ -1496,7 +1551,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>44232.625</v>
       </c>
       <c r="B113">
@@ -1504,7 +1559,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>44232.66666666666</v>
       </c>
       <c r="B114">
@@ -1512,7 +1567,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>44232.70833333334</v>
       </c>
       <c r="B115">
@@ -1520,7 +1575,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>44232.75</v>
       </c>
       <c r="B116">
@@ -1528,7 +1583,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>44232.79166666666</v>
       </c>
       <c r="B117">
@@ -1536,7 +1591,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>44232.83333333334</v>
       </c>
       <c r="B118">
@@ -1544,7 +1599,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>44232.875</v>
       </c>
       <c r="B119">
@@ -1552,7 +1607,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>44232.91666666666</v>
       </c>
       <c r="B120">
@@ -1560,7 +1615,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>44232.95833333334</v>
       </c>
       <c r="B121">
@@ -1568,7 +1623,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>44233</v>
       </c>
       <c r="B122">
@@ -1576,7 +1631,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>44233.04166666666</v>
       </c>
       <c r="B123">
@@ -1584,7 +1639,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>44233.08333333334</v>
       </c>
       <c r="B124">
@@ -1592,7 +1647,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>44233.125</v>
       </c>
       <c r="B125">
@@ -1600,7 +1655,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>44233.16666666666</v>
       </c>
       <c r="B126">
@@ -1608,7 +1663,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>44233.20833333334</v>
       </c>
       <c r="B127">
@@ -1616,7 +1671,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>44233.25</v>
       </c>
       <c r="B128">
@@ -1624,7 +1679,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>44233.29166666666</v>
       </c>
       <c r="B129">
@@ -1632,7 +1687,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>44233.33333333334</v>
       </c>
       <c r="B130">
@@ -1640,7 +1695,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>44233.375</v>
       </c>
       <c r="B131">
@@ -1648,7 +1703,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>44233.41666666666</v>
       </c>
       <c r="B132">
@@ -1656,7 +1711,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>44233.45833333334</v>
       </c>
       <c r="B133">
@@ -1664,7 +1719,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>44233.5</v>
       </c>
       <c r="B134">
@@ -1672,7 +1727,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>44233.54166666666</v>
       </c>
       <c r="B135">
@@ -1680,7 +1735,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>44233.58333333334</v>
       </c>
       <c r="B136">
@@ -1688,7 +1743,7 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>44233.625</v>
       </c>
       <c r="B137">
@@ -1696,7 +1751,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>44233.66666666666</v>
       </c>
       <c r="B138">
@@ -1704,7 +1759,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>44233.70833333334</v>
       </c>
       <c r="B139">
@@ -1712,7 +1767,7 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>44233.75</v>
       </c>
       <c r="B140">
@@ -1720,7 +1775,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>44233.79166666666</v>
       </c>
       <c r="B141">
@@ -1728,7 +1783,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>44233.83333333334</v>
       </c>
       <c r="B142">
@@ -1736,7 +1791,7 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>44233.875</v>
       </c>
       <c r="B143">
@@ -1744,7 +1799,7 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>44233.91666666666</v>
       </c>
       <c r="B144">
@@ -1752,7 +1807,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>44233.95833333334</v>
       </c>
       <c r="B145">
@@ -1760,7 +1815,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>44234</v>
       </c>
       <c r="B146">
@@ -1768,7 +1823,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>44234.04166666666</v>
       </c>
       <c r="B147">
@@ -1776,7 +1831,7 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>44234.08333333334</v>
       </c>
       <c r="B148">
@@ -1784,7 +1839,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>44234.125</v>
       </c>
       <c r="B149">
@@ -1792,7 +1847,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>44234.16666666666</v>
       </c>
       <c r="B150">
@@ -1800,7 +1855,7 @@
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>44234.20833333334</v>
       </c>
       <c r="B151">
@@ -1808,7 +1863,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>44234.25</v>
       </c>
       <c r="B152">
@@ -1816,7 +1871,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>44234.29166666666</v>
       </c>
       <c r="B153">
@@ -1824,7 +1879,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>44234.33333333334</v>
       </c>
       <c r="B154">
@@ -1832,7 +1887,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>44234.375</v>
       </c>
       <c r="B155">
@@ -1840,7 +1895,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>44234.41666666666</v>
       </c>
       <c r="B156">
@@ -1848,7 +1903,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>44234.45833333334</v>
       </c>
       <c r="B157">
@@ -1856,7 +1911,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>44234.5</v>
       </c>
       <c r="B158">
@@ -1864,7 +1919,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>44234.54166666666</v>
       </c>
       <c r="B159">
@@ -1872,7 +1927,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>44234.58333333334</v>
       </c>
       <c r="B160">
@@ -1880,7 +1935,7 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>44234.625</v>
       </c>
       <c r="B161">
@@ -1888,7 +1943,7 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>44234.66666666666</v>
       </c>
       <c r="B162">
@@ -1896,7 +1951,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>44234.70833333334</v>
       </c>
       <c r="B163">
@@ -1904,7 +1959,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>44234.75</v>
       </c>
       <c r="B164">
@@ -1912,7 +1967,7 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>44234.79166666666</v>
       </c>
       <c r="B165">
@@ -1920,7 +1975,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>44234.83333333334</v>
       </c>
       <c r="B166">
@@ -1928,7 +1983,7 @@
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>44234.875</v>
       </c>
       <c r="B167">
@@ -1936,7 +1991,7 @@
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>44234.91666666666</v>
       </c>
       <c r="B168">
@@ -1944,7 +1999,7 @@
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>44234.95833333334</v>
       </c>
       <c r="B169">
@@ -1952,7 +2007,7 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>44235</v>
       </c>
       <c r="B170">
@@ -1960,7 +2015,7 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>44235.04166666666</v>
       </c>
       <c r="B171">
@@ -1968,7 +2023,7 @@
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>44235.08333333334</v>
       </c>
       <c r="B172">
@@ -1976,7 +2031,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>44235.125</v>
       </c>
       <c r="B173">
@@ -1984,7 +2039,7 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>44235.16666666666</v>
       </c>
       <c r="B174">
@@ -1992,7 +2047,7 @@
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>44235.20833333334</v>
       </c>
       <c r="B175">
@@ -2000,7 +2055,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>44235.25</v>
       </c>
       <c r="B176">
@@ -2008,7 +2063,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>44235.29166666666</v>
       </c>
       <c r="B177">
@@ -2016,7 +2071,7 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>44235.33333333334</v>
       </c>
       <c r="B178">
@@ -2024,7 +2079,7 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>44235.375</v>
       </c>
       <c r="B179">
@@ -2032,7 +2087,7 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>44235.41666666666</v>
       </c>
       <c r="B180">
@@ -2040,7 +2095,7 @@
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>44235.45833333334</v>
       </c>
       <c r="B181">
@@ -2048,7 +2103,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>44235.5</v>
       </c>
       <c r="B182">
@@ -2056,7 +2111,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>44235.54166666666</v>
       </c>
       <c r="B183">
@@ -2064,7 +2119,7 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>44235.58333333334</v>
       </c>
       <c r="B184">
@@ -2072,7 +2127,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>44235.625</v>
       </c>
       <c r="B185">
@@ -2080,7 +2135,7 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <v>44235.66666666666</v>
       </c>
       <c r="B186">
@@ -2088,7 +2143,7 @@
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>44235.70833333334</v>
       </c>
       <c r="B187">
@@ -2096,7 +2151,7 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>44235.75</v>
       </c>
       <c r="B188">
@@ -2104,7 +2159,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <v>44235.79166666666</v>
       </c>
       <c r="B189">
@@ -2112,7 +2167,7 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <v>44235.83333333334</v>
       </c>
       <c r="B190">
@@ -2120,7 +2175,7 @@
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <v>44235.875</v>
       </c>
       <c r="B191">
@@ -2128,7 +2183,7 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <v>44235.91666666666</v>
       </c>
       <c r="B192">
@@ -2136,7 +2191,7 @@
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <v>44235.95833333334</v>
       </c>
       <c r="B193">
@@ -2144,7 +2199,7 @@
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <v>44236</v>
       </c>
       <c r="B194">
@@ -2152,7 +2207,7 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <v>44236.04166666666</v>
       </c>
       <c r="B195">
@@ -2160,7 +2215,7 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <v>44236.08333333334</v>
       </c>
       <c r="B196">
@@ -2168,7 +2223,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>44236.125</v>
       </c>
       <c r="B197">
@@ -2176,7 +2231,7 @@
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <v>44236.16666666666</v>
       </c>
       <c r="B198">
@@ -2184,7 +2239,7 @@
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <v>44236.20833333334</v>
       </c>
       <c r="B199">
@@ -2192,7 +2247,7 @@
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <v>44236.25</v>
       </c>
       <c r="B200">
@@ -2200,7 +2255,7 @@
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>44236.29166666666</v>
       </c>
       <c r="B201">
@@ -2208,7 +2263,7 @@
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <v>44236.33333333334</v>
       </c>
       <c r="B202">
@@ -2216,7 +2271,7 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <v>44236.375</v>
       </c>
       <c r="B203">
@@ -2224,7 +2279,7 @@
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>44236.41666666666</v>
       </c>
       <c r="B204">
@@ -2232,7 +2287,7 @@
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <v>44236.45833333334</v>
       </c>
       <c r="B205">
@@ -2240,7 +2295,7 @@
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <v>44236.5</v>
       </c>
       <c r="B206">
@@ -2248,7 +2303,7 @@
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <v>44236.54166666666</v>
       </c>
       <c r="B207">
@@ -2256,7 +2311,7 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <v>44236.58333333334</v>
       </c>
       <c r="B208">
@@ -2264,7 +2319,7 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <v>44236.625</v>
       </c>
       <c r="B209">
@@ -2272,7 +2327,7 @@
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <v>44236.66666666666</v>
       </c>
       <c r="B210">
@@ -2280,7 +2335,7 @@
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>44236.70833333334</v>
       </c>
       <c r="B211">
@@ -2288,7 +2343,7 @@
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <v>44236.75</v>
       </c>
       <c r="B212">
@@ -2296,7 +2351,7 @@
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>44236.79166666666</v>
       </c>
       <c r="B213">
@@ -2304,7 +2359,7 @@
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <v>44236.83333333334</v>
       </c>
       <c r="B214">
@@ -2312,7 +2367,7 @@
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <v>44236.875</v>
       </c>
       <c r="B215">
@@ -2320,7 +2375,7 @@
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <v>44236.91666666666</v>
       </c>
       <c r="B216">
@@ -2328,7 +2383,7 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <v>44236.95833333334</v>
       </c>
       <c r="B217">
@@ -2336,7 +2391,7 @@
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <v>44237</v>
       </c>
       <c r="B218">
@@ -2344,7 +2399,7 @@
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>44237.04166666666</v>
       </c>
       <c r="B219">
@@ -2352,7 +2407,7 @@
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <v>44237.08333333334</v>
       </c>
       <c r="B220">
@@ -2360,7 +2415,7 @@
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <v>44237.125</v>
       </c>
       <c r="B221">
@@ -2368,7 +2423,7 @@
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <v>44237.16666666666</v>
       </c>
       <c r="B222">
@@ -2376,7 +2431,7 @@
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <v>44237.20833333334</v>
       </c>
       <c r="B223">
@@ -2384,7 +2439,7 @@
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <v>44237.25</v>
       </c>
       <c r="B224">
@@ -2392,7 +2447,7 @@
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <v>44237.29166666666</v>
       </c>
       <c r="B225">
@@ -2400,7 +2455,7 @@
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>44237.33333333334</v>
       </c>
       <c r="B226">
@@ -2408,7 +2463,7 @@
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <v>44237.375</v>
       </c>
       <c r="B227">
@@ -2416,7 +2471,7 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <v>44237.41666666666</v>
       </c>
       <c r="B228">
@@ -2424,7 +2479,7 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <v>44237.45833333334</v>
       </c>
       <c r="B229">
@@ -2432,7 +2487,7 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <v>44237.5</v>
       </c>
       <c r="B230">
@@ -2440,7 +2495,7 @@
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <v>44237.54166666666</v>
       </c>
       <c r="B231">
@@ -2448,7 +2503,7 @@
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <v>44237.58333333334</v>
       </c>
       <c r="B232">
@@ -2456,7 +2511,7 @@
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>44237.625</v>
       </c>
       <c r="B233">
@@ -2464,7 +2519,7 @@
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <v>44237.66666666666</v>
       </c>
       <c r="B234">
@@ -2472,7 +2527,7 @@
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <v>44237.70833333334</v>
       </c>
       <c r="B235">
@@ -2480,7 +2535,7 @@
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <v>44237.75</v>
       </c>
       <c r="B236">
@@ -2488,7 +2543,7 @@
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <v>44237.79166666666</v>
       </c>
       <c r="B237">
@@ -2496,7 +2551,7 @@
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <v>44237.83333333334</v>
       </c>
       <c r="B238">
@@ -2504,7 +2559,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <v>44237.875</v>
       </c>
       <c r="B239">
@@ -2512,7 +2567,7 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <v>44237.91666666666</v>
       </c>
       <c r="B240">
@@ -2520,7 +2575,7 @@
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <v>44237.95833333334</v>
       </c>
       <c r="B241">
@@ -2528,7 +2583,7 @@
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <v>44238</v>
       </c>
       <c r="B242">
@@ -2536,7 +2591,7 @@
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>44238.04166666666</v>
       </c>
       <c r="B243">
@@ -2544,7 +2599,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <v>44238.08333333334</v>
       </c>
       <c r="B244">
@@ -2552,7 +2607,7 @@
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <v>44238.125</v>
       </c>
       <c r="B245">
@@ -2560,7 +2615,7 @@
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <v>44238.16666666666</v>
       </c>
       <c r="B246">
@@ -2568,7 +2623,7 @@
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <v>44238.20833333334</v>
       </c>
       <c r="B247">
@@ -2576,7 +2631,7 @@
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <v>44238.25</v>
       </c>
       <c r="B248">
@@ -2584,7 +2639,7 @@
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <v>44238.29166666666</v>
       </c>
       <c r="B249">
@@ -2592,7 +2647,7 @@
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <v>44238.33333333334</v>
       </c>
       <c r="B250">
@@ -2600,7 +2655,7 @@
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <v>44238.375</v>
       </c>
       <c r="B251">
@@ -2608,7 +2663,7 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <v>44238.41666666666</v>
       </c>
       <c r="B252">
@@ -2616,7 +2671,7 @@
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <v>44238.45833333334</v>
       </c>
       <c r="B253">
@@ -2624,7 +2679,7 @@
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="3">
+      <c r="A254" s="2">
         <v>44238.5</v>
       </c>
       <c r="B254">
@@ -2632,7 +2687,7 @@
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="3">
+      <c r="A255" s="2">
         <v>44238.54166666666</v>
       </c>
       <c r="B255">
@@ -2640,7 +2695,7 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="3">
+      <c r="A256" s="2">
         <v>44238.58333333334</v>
       </c>
       <c r="B256">
@@ -2648,7 +2703,7 @@
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <v>44238.625</v>
       </c>
       <c r="B257">
@@ -2656,7 +2711,7 @@
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <v>44238.66666666666</v>
       </c>
       <c r="B258">
@@ -2664,7 +2719,7 @@
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <v>44238.70833333334</v>
       </c>
       <c r="B259">
@@ -2672,7 +2727,7 @@
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="3">
+      <c r="A260" s="2">
         <v>44238.75</v>
       </c>
       <c r="B260">
@@ -2680,7 +2735,7 @@
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="3">
+      <c r="A261" s="2">
         <v>44238.79166666666</v>
       </c>
       <c r="B261">
@@ -2688,7 +2743,7 @@
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="3">
+      <c r="A262" s="2">
         <v>44238.83333333334</v>
       </c>
       <c r="B262">
@@ -2696,7 +2751,7 @@
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="3">
+      <c r="A263" s="2">
         <v>44238.875</v>
       </c>
       <c r="B263">
@@ -2704,7 +2759,7 @@
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="3">
+      <c r="A264" s="2">
         <v>44238.91666666666</v>
       </c>
       <c r="B264">
@@ -2712,7 +2767,7 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="3">
+      <c r="A265" s="2">
         <v>44238.95833333334</v>
       </c>
       <c r="B265">
@@ -2720,7 +2775,7 @@
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="3">
+      <c r="A266" s="2">
         <v>44239</v>
       </c>
       <c r="B266">
@@ -2728,7 +2783,7 @@
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="3">
+      <c r="A267" s="2">
         <v>44239.04166666666</v>
       </c>
       <c r="B267">
@@ -2736,7 +2791,7 @@
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="3">
+      <c r="A268" s="2">
         <v>44239.08333333334</v>
       </c>
       <c r="B268">
@@ -2744,7 +2799,7 @@
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="3">
+      <c r="A269" s="2">
         <v>44239.125</v>
       </c>
       <c r="B269">
@@ -2752,7 +2807,7 @@
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="3">
+      <c r="A270" s="2">
         <v>44239.16666666666</v>
       </c>
       <c r="B270">
@@ -2760,7 +2815,7 @@
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="3">
+      <c r="A271" s="2">
         <v>44239.20833333334</v>
       </c>
       <c r="B271">
@@ -2768,7 +2823,7 @@
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="3">
+      <c r="A272" s="2">
         <v>44239.25</v>
       </c>
       <c r="B272">
@@ -2776,7 +2831,7 @@
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="3">
+      <c r="A273" s="2">
         <v>44239.29166666666</v>
       </c>
       <c r="B273">
@@ -2784,7 +2839,7 @@
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="3">
+      <c r="A274" s="2">
         <v>44239.33333333334</v>
       </c>
       <c r="B274">
@@ -2792,7 +2847,7 @@
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="3">
+      <c r="A275" s="2">
         <v>44239.375</v>
       </c>
       <c r="B275">
@@ -2800,7 +2855,7 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="3">
+      <c r="A276" s="2">
         <v>44239.41666666666</v>
       </c>
       <c r="B276">
@@ -2808,7 +2863,7 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="3">
+      <c r="A277" s="2">
         <v>44239.45833333334</v>
       </c>
       <c r="B277">
@@ -2816,7 +2871,7 @@
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="3">
+      <c r="A278" s="2">
         <v>44239.5</v>
       </c>
       <c r="B278">
@@ -2824,7 +2879,7 @@
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="3">
+      <c r="A279" s="2">
         <v>44239.54166666666</v>
       </c>
       <c r="B279">
@@ -2832,7 +2887,7 @@
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="3">
+      <c r="A280" s="2">
         <v>44239.58333333334</v>
       </c>
       <c r="B280">
@@ -2840,7 +2895,7 @@
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="3">
+      <c r="A281" s="2">
         <v>44239.625</v>
       </c>
       <c r="B281">
@@ -2848,7 +2903,7 @@
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="3">
+      <c r="A282" s="2">
         <v>44239.66666666666</v>
       </c>
       <c r="B282">
@@ -2856,7 +2911,7 @@
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="3">
+      <c r="A283" s="2">
         <v>44239.70833333334</v>
       </c>
       <c r="B283">
@@ -2864,7 +2919,7 @@
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="3">
+      <c r="A284" s="2">
         <v>44239.75</v>
       </c>
       <c r="B284">
@@ -2872,7 +2927,7 @@
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="3">
+      <c r="A285" s="2">
         <v>44239.79166666666</v>
       </c>
       <c r="B285">
@@ -2880,7 +2935,7 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="3">
+      <c r="A286" s="2">
         <v>44239.83333333334</v>
       </c>
       <c r="B286">
@@ -2888,7 +2943,7 @@
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="3">
+      <c r="A287" s="2">
         <v>44239.875</v>
       </c>
       <c r="B287">
@@ -2896,7 +2951,7 @@
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="3">
+      <c r="A288" s="2">
         <v>44239.91666666666</v>
       </c>
       <c r="B288">
@@ -2904,7 +2959,7 @@
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="3">
+      <c r="A289" s="2">
         <v>44239.95833333334</v>
       </c>
       <c r="B289">
@@ -2912,7 +2967,7 @@
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="3">
+      <c r="A290" s="2">
         <v>44240</v>
       </c>
       <c r="B290">
@@ -2920,7 +2975,7 @@
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <v>44240.04166666666</v>
       </c>
       <c r="B291">
@@ -2928,7 +2983,7 @@
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <v>44240.08333333334</v>
       </c>
       <c r="B292">
@@ -2936,7 +2991,7 @@
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <v>44240.125</v>
       </c>
       <c r="B293">
@@ -2944,7 +2999,7 @@
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <v>44240.16666666666</v>
       </c>
       <c r="B294">
@@ -2952,7 +3007,7 @@
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <v>44240.20833333334</v>
       </c>
       <c r="B295">
@@ -2960,7 +3015,7 @@
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <v>44240.25</v>
       </c>
       <c r="B296">
@@ -2968,7 +3023,7 @@
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <v>44240.29166666666</v>
       </c>
       <c r="B297">
@@ -2976,7 +3031,7 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <v>44240.33333333334</v>
       </c>
       <c r="B298">
@@ -2984,7 +3039,7 @@
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <v>44240.375</v>
       </c>
       <c r="B299">
@@ -2992,7 +3047,7 @@
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <v>44240.41666666666</v>
       </c>
       <c r="B300">
@@ -3000,7 +3055,7 @@
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <v>44240.45833333334</v>
       </c>
       <c r="B301">
@@ -3008,7 +3063,7 @@
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <v>44240.5</v>
       </c>
       <c r="B302">
@@ -3016,7 +3071,7 @@
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <v>44240.54166666666</v>
       </c>
       <c r="B303">
@@ -3024,7 +3079,7 @@
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="3">
+      <c r="A304" s="2">
         <v>44240.58333333334</v>
       </c>
       <c r="B304">
@@ -3032,7 +3087,7 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="3">
+      <c r="A305" s="2">
         <v>44240.625</v>
       </c>
       <c r="B305">
@@ -3040,7 +3095,7 @@
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="3">
+      <c r="A306" s="2">
         <v>44240.66666666666</v>
       </c>
       <c r="B306">
@@ -3048,7 +3103,7 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <v>44240.70833333334</v>
       </c>
       <c r="B307">
@@ -3056,7 +3111,7 @@
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <v>44240.75</v>
       </c>
       <c r="B308">
@@ -3064,7 +3119,7 @@
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <v>44240.79166666666</v>
       </c>
       <c r="B309">
@@ -3072,7 +3127,7 @@
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="3">
+      <c r="A310" s="2">
         <v>44240.83333333334</v>
       </c>
       <c r="B310">
@@ -3080,7 +3135,7 @@
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="3">
+      <c r="A311" s="2">
         <v>44240.875</v>
       </c>
       <c r="B311">
@@ -3088,7 +3143,7 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="3">
+      <c r="A312" s="2">
         <v>44240.91666666666</v>
       </c>
       <c r="B312">
@@ -3096,7 +3151,7 @@
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="3">
+      <c r="A313" s="2">
         <v>44240.95833333334</v>
       </c>
       <c r="B313">
@@ -3104,7 +3159,7 @@
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="3">
+      <c r="A314" s="2">
         <v>44241</v>
       </c>
       <c r="B314">
@@ -3112,7 +3167,7 @@
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="3">
+      <c r="A315" s="2">
         <v>44241.04166666666</v>
       </c>
       <c r="B315">
@@ -3120,7 +3175,7 @@
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="3">
+      <c r="A316" s="2">
         <v>44241.08333333334</v>
       </c>
       <c r="B316">
@@ -3128,7 +3183,7 @@
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="3">
+      <c r="A317" s="2">
         <v>44241.125</v>
       </c>
       <c r="B317">
@@ -3136,7 +3191,7 @@
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="3">
+      <c r="A318" s="2">
         <v>44241.16666666666</v>
       </c>
       <c r="B318">
@@ -3144,7 +3199,7 @@
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="3">
+      <c r="A319" s="2">
         <v>44241.20833333334</v>
       </c>
       <c r="B319">
@@ -3152,7 +3207,7 @@
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="3">
+      <c r="A320" s="2">
         <v>44241.25</v>
       </c>
       <c r="B320">
@@ -3160,7 +3215,7 @@
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="3">
+      <c r="A321" s="2">
         <v>44241.29166666666</v>
       </c>
       <c r="B321">
@@ -3168,7 +3223,7 @@
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="3">
+      <c r="A322" s="2">
         <v>44241.33333333334</v>
       </c>
       <c r="B322">
@@ -3176,7 +3231,7 @@
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="3">
+      <c r="A323" s="2">
         <v>44241.375</v>
       </c>
       <c r="B323">
@@ -3184,7 +3239,7 @@
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="3">
+      <c r="A324" s="2">
         <v>44241.41666666666</v>
       </c>
       <c r="B324">
@@ -3192,7 +3247,7 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="3">
+      <c r="A325" s="2">
         <v>44241.45833333334</v>
       </c>
       <c r="B325">
@@ -3200,7 +3255,7 @@
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="3">
+      <c r="A326" s="2">
         <v>44241.5</v>
       </c>
       <c r="B326">
@@ -3208,7 +3263,7 @@
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="3">
+      <c r="A327" s="2">
         <v>44241.54166666666</v>
       </c>
       <c r="B327">
@@ -3216,7 +3271,7 @@
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="3">
+      <c r="A328" s="2">
         <v>44241.58333333334</v>
       </c>
       <c r="B328">
@@ -3224,7 +3279,7 @@
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="3">
+      <c r="A329" s="2">
         <v>44241.625</v>
       </c>
       <c r="B329">
@@ -3232,7 +3287,7 @@
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="3">
+      <c r="A330" s="2">
         <v>44241.66666666666</v>
       </c>
       <c r="B330">
@@ -3240,7 +3295,7 @@
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="3">
+      <c r="A331" s="2">
         <v>44241.70833333334</v>
       </c>
       <c r="B331">
@@ -3248,7 +3303,7 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="3">
+      <c r="A332" s="2">
         <v>44241.75</v>
       </c>
       <c r="B332">
@@ -3256,7 +3311,7 @@
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="3">
+      <c r="A333" s="2">
         <v>44241.79166666666</v>
       </c>
       <c r="B333">
@@ -3264,7 +3319,7 @@
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="3">
+      <c r="A334" s="2">
         <v>44241.83333333334</v>
       </c>
       <c r="B334">
@@ -3272,7 +3327,7 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="3">
+      <c r="A335" s="2">
         <v>44241.875</v>
       </c>
       <c r="B335">
@@ -3280,7 +3335,7 @@
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="3">
+      <c r="A336" s="2">
         <v>44241.91666666666</v>
       </c>
       <c r="B336">
@@ -3288,7 +3343,7 @@
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="3">
+      <c r="A337" s="2">
         <v>44241.95833333334</v>
       </c>
       <c r="B337">
@@ -3296,7 +3351,7 @@
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="3">
+      <c r="A338" s="2">
         <v>44242</v>
       </c>
       <c r="B338">
@@ -3304,7 +3359,7 @@
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="3">
+      <c r="A339" s="2">
         <v>44242.04166666666</v>
       </c>
       <c r="B339">
@@ -3312,7 +3367,7 @@
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="3">
+      <c r="A340" s="2">
         <v>44242.08333333334</v>
       </c>
       <c r="B340">
@@ -3320,7 +3375,7 @@
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="3">
+      <c r="A341" s="2">
         <v>44242.125</v>
       </c>
       <c r="B341">
@@ -3328,7 +3383,7 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="3">
+      <c r="A342" s="2">
         <v>44242.16666666666</v>
       </c>
       <c r="B342">
@@ -3336,7 +3391,7 @@
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="3">
+      <c r="A343" s="2">
         <v>44242.20833333334</v>
       </c>
       <c r="B343">
@@ -3344,7 +3399,7 @@
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="3">
+      <c r="A344" s="2">
         <v>44242.25</v>
       </c>
       <c r="B344">
@@ -3352,7 +3407,7 @@
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="3">
+      <c r="A345" s="2">
         <v>44242.29166666666</v>
       </c>
       <c r="B345">
@@ -3360,7 +3415,7 @@
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="3">
+      <c r="A346" s="2">
         <v>44242.33333333334</v>
       </c>
       <c r="B346">
@@ -3368,7 +3423,7 @@
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="3">
+      <c r="A347" s="2">
         <v>44242.375</v>
       </c>
       <c r="B347">
@@ -3376,7 +3431,7 @@
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="3">
+      <c r="A348" s="2">
         <v>44242.41666666666</v>
       </c>
       <c r="B348">
@@ -3384,7 +3439,7 @@
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="3">
+      <c r="A349" s="2">
         <v>44242.45833333334</v>
       </c>
       <c r="B349">
@@ -3392,7 +3447,7 @@
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="3">
+      <c r="A350" s="2">
         <v>44242.5</v>
       </c>
       <c r="B350">
@@ -3400,7 +3455,7 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="3">
+      <c r="A351" s="2">
         <v>44242.54166666666</v>
       </c>
       <c r="B351">
@@ -3408,7 +3463,7 @@
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="3">
+      <c r="A352" s="2">
         <v>44242.58333333334</v>
       </c>
       <c r="B352">
@@ -3416,7 +3471,7 @@
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="3">
+      <c r="A353" s="2">
         <v>44242.625</v>
       </c>
       <c r="B353">
@@ -3424,7 +3479,7 @@
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="3">
+      <c r="A354" s="2">
         <v>44242.66666666666</v>
       </c>
       <c r="B354">
@@ -3432,7 +3487,7 @@
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="3">
+      <c r="A355" s="2">
         <v>44242.70833333334</v>
       </c>
       <c r="B355">
@@ -3440,7 +3495,7 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="3">
+      <c r="A356" s="2">
         <v>44242.75</v>
       </c>
       <c r="B356">
@@ -3448,7 +3503,7 @@
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="3">
+      <c r="A357" s="2">
         <v>44242.79166666666</v>
       </c>
       <c r="B357">
@@ -3456,7 +3511,7 @@
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="3">
+      <c r="A358" s="2">
         <v>44242.83333333334</v>
       </c>
       <c r="B358">
@@ -3464,7 +3519,7 @@
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="3">
+      <c r="A359" s="2">
         <v>44242.875</v>
       </c>
       <c r="B359">
@@ -3472,7 +3527,7 @@
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="3">
+      <c r="A360" s="2">
         <v>44242.91666666666</v>
       </c>
       <c r="B360">
@@ -3480,7 +3535,7 @@
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="3">
+      <c r="A361" s="2">
         <v>44242.95833333334</v>
       </c>
       <c r="B361">
@@ -3488,7 +3543,7 @@
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="3">
+      <c r="A362" s="2">
         <v>44243</v>
       </c>
       <c r="B362">
@@ -3496,7 +3551,7 @@
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="3">
+      <c r="A363" s="2">
         <v>44243.04166666666</v>
       </c>
       <c r="B363">
@@ -3504,7 +3559,7 @@
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="3">
+      <c r="A364" s="2">
         <v>44243.08333333334</v>
       </c>
       <c r="B364">
@@ -3512,7 +3567,7 @@
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="3">
+      <c r="A365" s="2">
         <v>44243.125</v>
       </c>
       <c r="B365">
@@ -3520,7 +3575,7 @@
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="3">
+      <c r="A366" s="2">
         <v>44243.16666666666</v>
       </c>
       <c r="B366">
@@ -3528,7 +3583,7 @@
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="3">
+      <c r="A367" s="2">
         <v>44243.20833333334</v>
       </c>
       <c r="B367">
@@ -3536,7 +3591,7 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="3">
+      <c r="A368" s="2">
         <v>44243.25</v>
       </c>
       <c r="B368">
@@ -3544,7 +3599,7 @@
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="3">
+      <c r="A369" s="2">
         <v>44243.29166666666</v>
       </c>
       <c r="B369">
@@ -3552,7 +3607,7 @@
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="3">
+      <c r="A370" s="2">
         <v>44243.33333333334</v>
       </c>
       <c r="B370">
@@ -3560,7 +3615,7 @@
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="3">
+      <c r="A371" s="2">
         <v>44243.375</v>
       </c>
       <c r="B371">
@@ -3568,7 +3623,7 @@
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="3">
+      <c r="A372" s="2">
         <v>44243.41666666666</v>
       </c>
       <c r="B372">
@@ -3576,7 +3631,7 @@
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="3">
+      <c r="A373" s="2">
         <v>44243.45833333334</v>
       </c>
       <c r="B373">
@@ -3584,7 +3639,7 @@
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="3">
+      <c r="A374" s="2">
         <v>44243.5</v>
       </c>
       <c r="B374">
@@ -3592,7 +3647,7 @@
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="3">
+      <c r="A375" s="2">
         <v>44243.54166666666</v>
       </c>
       <c r="B375">
@@ -3600,7 +3655,7 @@
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="3">
+      <c r="A376" s="2">
         <v>44243.58333333334</v>
       </c>
       <c r="B376">
@@ -3608,7 +3663,7 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="3">
+      <c r="A377" s="2">
         <v>44243.625</v>
       </c>
       <c r="B377">
@@ -3616,7 +3671,7 @@
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="3">
+      <c r="A378" s="2">
         <v>44243.66666666666</v>
       </c>
       <c r="B378">
@@ -3624,7 +3679,7 @@
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="3">
+      <c r="A379" s="2">
         <v>44243.70833333334</v>
       </c>
       <c r="B379">
@@ -3632,7 +3687,7 @@
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="3">
+      <c r="A380" s="2">
         <v>44243.75</v>
       </c>
       <c r="B380">
@@ -3640,7 +3695,7 @@
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="3">
+      <c r="A381" s="2">
         <v>44243.79166666666</v>
       </c>
       <c r="B381">
@@ -3648,7 +3703,7 @@
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="3">
+      <c r="A382" s="2">
         <v>44243.83333333334</v>
       </c>
       <c r="B382">
@@ -3656,7 +3711,7 @@
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="3">
+      <c r="A383" s="2">
         <v>44243.875</v>
       </c>
       <c r="B383">
@@ -3664,7 +3719,7 @@
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="3">
+      <c r="A384" s="2">
         <v>44243.91666666666</v>
       </c>
       <c r="B384">
@@ -3672,7 +3727,7 @@
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="3">
+      <c r="A385" s="2">
         <v>44243.95833333334</v>
       </c>
       <c r="B385">
@@ -3680,7 +3735,7 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="3">
+      <c r="A386" s="2">
         <v>44244</v>
       </c>
       <c r="B386">
@@ -3688,7 +3743,7 @@
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="3">
+      <c r="A387" s="2">
         <v>44244.04166666666</v>
       </c>
       <c r="B387">
@@ -3696,7 +3751,7 @@
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="3">
+      <c r="A388" s="2">
         <v>44244.08333333334</v>
       </c>
       <c r="B388">
@@ -3704,7 +3759,7 @@
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="3">
+      <c r="A389" s="2">
         <v>44244.125</v>
       </c>
       <c r="B389">
@@ -3712,7 +3767,7 @@
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="3">
+      <c r="A390" s="2">
         <v>44244.16666666666</v>
       </c>
       <c r="B390">
@@ -3720,7 +3775,7 @@
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="3">
+      <c r="A391" s="2">
         <v>44244.20833333334</v>
       </c>
       <c r="B391">
@@ -3728,7 +3783,7 @@
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="3">
+      <c r="A392" s="2">
         <v>44244.25</v>
       </c>
       <c r="B392">
@@ -3736,7 +3791,7 @@
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="3">
+      <c r="A393" s="2">
         <v>44244.29166666666</v>
       </c>
       <c r="B393">
@@ -3744,7 +3799,7 @@
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="3">
+      <c r="A394" s="2">
         <v>44244.33333333334</v>
       </c>
       <c r="B394">
@@ -3752,7 +3807,7 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="3">
+      <c r="A395" s="2">
         <v>44244.375</v>
       </c>
       <c r="B395">
@@ -3760,7 +3815,7 @@
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="3">
+      <c r="A396" s="2">
         <v>44244.41666666666</v>
       </c>
       <c r="B396">
@@ -3768,7 +3823,7 @@
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="3">
+      <c r="A397" s="2">
         <v>44244.45833333334</v>
       </c>
       <c r="B397">
@@ -3776,7 +3831,7 @@
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="3">
+      <c r="A398" s="2">
         <v>44244.5</v>
       </c>
       <c r="B398">
@@ -3784,7 +3839,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <v>44244.54166666666</v>
       </c>
       <c r="B399">
@@ -3792,7 +3847,7 @@
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="3">
+      <c r="A400" s="2">
         <v>44244.58333333334</v>
       </c>
       <c r="B400">
@@ -3800,7 +3855,7 @@
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="3">
+      <c r="A401" s="2">
         <v>44244.625</v>
       </c>
       <c r="B401">
@@ -3808,7 +3863,7 @@
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="3">
+      <c r="A402" s="2">
         <v>44244.66666666666</v>
       </c>
       <c r="B402">
@@ -3816,7 +3871,7 @@
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="3">
+      <c r="A403" s="2">
         <v>44244.70833333334</v>
       </c>
       <c r="B403">
@@ -3824,7 +3879,7 @@
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="3">
+      <c r="A404" s="2">
         <v>44244.75</v>
       </c>
       <c r="B404">
@@ -3832,7 +3887,7 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="3">
+      <c r="A405" s="2">
         <v>44244.79166666666</v>
       </c>
       <c r="B405">
@@ -3840,7 +3895,7 @@
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="3">
+      <c r="A406" s="2">
         <v>44244.83333333334</v>
       </c>
       <c r="B406">
@@ -3848,7 +3903,7 @@
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="3">
+      <c r="A407" s="2">
         <v>44244.875</v>
       </c>
       <c r="B407">
@@ -3856,7 +3911,7 @@
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="3">
+      <c r="A408" s="2">
         <v>44244.91666666666</v>
       </c>
       <c r="B408">
@@ -3864,7 +3919,7 @@
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="3">
+      <c r="A409" s="2">
         <v>44244.95833333334</v>
       </c>
       <c r="B409">
@@ -3872,7 +3927,7 @@
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="3">
+      <c r="A410" s="2">
         <v>44245</v>
       </c>
       <c r="B410">
@@ -3880,7 +3935,7 @@
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="3">
+      <c r="A411" s="2">
         <v>44245.04166666666</v>
       </c>
       <c r="B411">
@@ -3888,7 +3943,7 @@
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="3">
+      <c r="A412" s="2">
         <v>44245.08333333334</v>
       </c>
       <c r="B412">
@@ -3896,7 +3951,7 @@
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="3">
+      <c r="A413" s="2">
         <v>44245.125</v>
       </c>
       <c r="B413">
@@ -3904,7 +3959,7 @@
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="3">
+      <c r="A414" s="2">
         <v>44245.16666666666</v>
       </c>
       <c r="B414">
@@ -3912,7 +3967,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="3">
+      <c r="A415" s="2">
         <v>44245.20833333334</v>
       </c>
       <c r="B415">
@@ -3920,7 +3975,7 @@
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="3">
+      <c r="A416" s="2">
         <v>44245.25</v>
       </c>
       <c r="B416">
@@ -3928,7 +3983,7 @@
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="3">
+      <c r="A417" s="2">
         <v>44245.29166666666</v>
       </c>
       <c r="B417">
@@ -3936,7 +3991,7 @@
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="3">
+      <c r="A418" s="2">
         <v>44245.33333333334</v>
       </c>
       <c r="B418">
@@ -3944,7 +3999,7 @@
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="3">
+      <c r="A419" s="2">
         <v>44245.375</v>
       </c>
       <c r="B419">
@@ -3952,7 +4007,7 @@
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="3">
+      <c r="A420" s="2">
         <v>44245.41666666666</v>
       </c>
       <c r="B420">
@@ -3960,7 +4015,7 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="3">
+      <c r="A421" s="2">
         <v>44245.45833333334</v>
       </c>
       <c r="B421">
@@ -3968,7 +4023,7 @@
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="3">
+      <c r="A422" s="2">
         <v>44245.5</v>
       </c>
       <c r="B422">
@@ -3976,7 +4031,7 @@
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="3">
+      <c r="A423" s="2">
         <v>44245.54166666666</v>
       </c>
       <c r="B423">
@@ -3984,7 +4039,7 @@
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="3">
+      <c r="A424" s="2">
         <v>44245.58333333334</v>
       </c>
       <c r="B424">
@@ -3992,7 +4047,7 @@
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="3">
+      <c r="A425" s="2">
         <v>44245.625</v>
       </c>
       <c r="B425">
@@ -4000,7 +4055,7 @@
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="3">
+      <c r="A426" s="2">
         <v>44245.66666666666</v>
       </c>
       <c r="B426">
@@ -4008,7 +4063,7 @@
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="3">
+      <c r="A427" s="2">
         <v>44245.70833333334</v>
       </c>
       <c r="B427">
@@ -4016,7 +4071,7 @@
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="3">
+      <c r="A428" s="2">
         <v>44245.75</v>
       </c>
       <c r="B428">
@@ -4024,7 +4079,7 @@
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="3">
+      <c r="A429" s="2">
         <v>44245.79166666666</v>
       </c>
       <c r="B429">
@@ -4032,7 +4087,7 @@
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="3">
+      <c r="A430" s="2">
         <v>44245.83333333334</v>
       </c>
       <c r="B430">
@@ -4040,7 +4095,7 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="3">
+      <c r="A431" s="2">
         <v>44245.875</v>
       </c>
       <c r="B431">
@@ -4048,7 +4103,7 @@
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="3">
+      <c r="A432" s="2">
         <v>44245.91666666666</v>
       </c>
       <c r="B432">
@@ -4056,7 +4111,7 @@
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="3">
+      <c r="A433" s="2">
         <v>44245.95833333334</v>
       </c>
       <c r="B433">
@@ -4064,7 +4119,7 @@
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="3">
+      <c r="A434" s="2">
         <v>44246</v>
       </c>
       <c r="B434">
@@ -4072,7 +4127,7 @@
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="3">
+      <c r="A435" s="2">
         <v>44246.04166666666</v>
       </c>
       <c r="B435">
@@ -4080,7 +4135,7 @@
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="3">
+      <c r="A436" s="2">
         <v>44246.08333333334</v>
       </c>
       <c r="B436">
@@ -4088,7 +4143,7 @@
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="3">
+      <c r="A437" s="2">
         <v>44246.125</v>
       </c>
       <c r="B437">
@@ -4096,7 +4151,7 @@
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="3">
+      <c r="A438" s="2">
         <v>44246.16666666666</v>
       </c>
       <c r="B438">
@@ -4104,7 +4159,7 @@
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="3">
+      <c r="A439" s="2">
         <v>44246.20833333334</v>
       </c>
       <c r="B439">
@@ -4112,7 +4167,7 @@
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="3">
+      <c r="A440" s="2">
         <v>44246.25</v>
       </c>
       <c r="B440">
@@ -4120,7 +4175,7 @@
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="3">
+      <c r="A441" s="2">
         <v>44246.29166666666</v>
       </c>
       <c r="B441">
@@ -4128,7 +4183,7 @@
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="3">
+      <c r="A442" s="2">
         <v>44246.33333333334</v>
       </c>
       <c r="B442">
@@ -4136,7 +4191,7 @@
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="3">
+      <c r="A443" s="2">
         <v>44246.375</v>
       </c>
       <c r="B443">
@@ -4144,7 +4199,7 @@
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="3">
+      <c r="A444" s="2">
         <v>44246.41666666666</v>
       </c>
       <c r="B444">
@@ -4152,7 +4207,7 @@
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="3">
+      <c r="A445" s="2">
         <v>44246.45833333334</v>
       </c>
       <c r="B445">
@@ -4160,7 +4215,7 @@
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="3">
+      <c r="A446" s="2">
         <v>44246.5</v>
       </c>
       <c r="B446">
@@ -4168,7 +4223,7 @@
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="3">
+      <c r="A447" s="2">
         <v>44246.54166666666</v>
       </c>
       <c r="B447">
@@ -4176,7 +4231,7 @@
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="3">
+      <c r="A448" s="2">
         <v>44246.58333333334</v>
       </c>
       <c r="B448">
@@ -4184,7 +4239,7 @@
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="3">
+      <c r="A449" s="2">
         <v>44246.625</v>
       </c>
       <c r="B449">
@@ -4192,7 +4247,7 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="3">
+      <c r="A450" s="2">
         <v>44246.66666666666</v>
       </c>
       <c r="B450">
@@ -4200,7 +4255,7 @@
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="3">
+      <c r="A451" s="2">
         <v>44246.70833333334</v>
       </c>
       <c r="B451">
@@ -4208,7 +4263,7 @@
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="3">
+      <c r="A452" s="2">
         <v>44246.75</v>
       </c>
       <c r="B452">
@@ -4216,7 +4271,7 @@
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="3">
+      <c r="A453" s="2">
         <v>44246.79166666666</v>
       </c>
       <c r="B453">
@@ -4224,7 +4279,7 @@
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="3">
+      <c r="A454" s="2">
         <v>44246.83333333334</v>
       </c>
       <c r="B454">
@@ -4232,7 +4287,7 @@
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="3">
+      <c r="A455" s="2">
         <v>44246.875</v>
       </c>
       <c r="B455">
@@ -4240,7 +4295,7 @@
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="3">
+      <c r="A456" s="2">
         <v>44246.91666666666</v>
       </c>
       <c r="B456">
@@ -4248,7 +4303,7 @@
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="3">
+      <c r="A457" s="2">
         <v>44246.95833333334</v>
       </c>
       <c r="B457">
@@ -4256,7 +4311,7 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="3">
+      <c r="A458" s="2">
         <v>44247</v>
       </c>
       <c r="B458">
@@ -4264,7 +4319,7 @@
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="3">
+      <c r="A459" s="2">
         <v>44247.04166666666</v>
       </c>
       <c r="B459">
@@ -4272,7 +4327,7 @@
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="3">
+      <c r="A460" s="2">
         <v>44247.08333333334</v>
       </c>
       <c r="B460">
@@ -4280,7 +4335,7 @@
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="3">
+      <c r="A461" s="2">
         <v>44247.125</v>
       </c>
       <c r="B461">
@@ -4288,7 +4343,7 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="3">
+      <c r="A462" s="2">
         <v>44247.16666666666</v>
       </c>
       <c r="B462">
@@ -4296,7 +4351,7 @@
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="3">
+      <c r="A463" s="2">
         <v>44247.20833333334</v>
       </c>
       <c r="B463">
@@ -4304,7 +4359,7 @@
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="3">
+      <c r="A464" s="2">
         <v>44247.25</v>
       </c>
       <c r="B464">
@@ -4312,7 +4367,7 @@
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="3">
+      <c r="A465" s="2">
         <v>44247.29166666666</v>
       </c>
       <c r="B465">
@@ -4320,7 +4375,7 @@
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="3">
+      <c r="A466" s="2">
         <v>44247.33333333334</v>
       </c>
       <c r="B466">
@@ -4328,7 +4383,7 @@
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="3">
+      <c r="A467" s="2">
         <v>44247.375</v>
       </c>
       <c r="B467">
@@ -4336,7 +4391,7 @@
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="3">
+      <c r="A468" s="2">
         <v>44247.41666666666</v>
       </c>
       <c r="B468">
@@ -4344,7 +4399,7 @@
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="3">
+      <c r="A469" s="2">
         <v>44247.45833333334</v>
       </c>
       <c r="B469">
@@ -4352,7 +4407,7 @@
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="3">
+      <c r="A470" s="2">
         <v>44247.5</v>
       </c>
       <c r="B470">
@@ -4360,7 +4415,7 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="3">
+      <c r="A471" s="2">
         <v>44247.54166666666</v>
       </c>
       <c r="B471">
@@ -4368,7 +4423,7 @@
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="3">
+      <c r="A472" s="2">
         <v>44247.58333333334</v>
       </c>
       <c r="B472">
@@ -4376,7 +4431,7 @@
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="3">
+      <c r="A473" s="2">
         <v>44247.625</v>
       </c>
       <c r="B473">
@@ -4384,7 +4439,7 @@
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="3">
+      <c r="A474" s="2">
         <v>44247.66666666666</v>
       </c>
       <c r="B474">
@@ -4392,7 +4447,7 @@
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="3">
+      <c r="A475" s="2">
         <v>44247.70833333334</v>
       </c>
       <c r="B475">
@@ -4400,7 +4455,7 @@
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="3">
+      <c r="A476" s="2">
         <v>44247.75</v>
       </c>
       <c r="B476">
@@ -4408,7 +4463,7 @@
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="3">
+      <c r="A477" s="2">
         <v>44247.79166666666</v>
       </c>
       <c r="B477">
@@ -4416,7 +4471,7 @@
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="3">
+      <c r="A478" s="2">
         <v>44247.83333333334</v>
       </c>
       <c r="B478">
@@ -4424,7 +4479,7 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="3">
+      <c r="A479" s="2">
         <v>44247.875</v>
       </c>
       <c r="B479">
@@ -4432,7 +4487,7 @@
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="3">
+      <c r="A480" s="2">
         <v>44247.91666666666</v>
       </c>
       <c r="B480">
@@ -4440,7 +4495,7 @@
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="3">
+      <c r="A481" s="2">
         <v>44247.95833333334</v>
       </c>
       <c r="B481">
@@ -4448,7 +4503,7 @@
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="3">
+      <c r="A482" s="2">
         <v>44248</v>
       </c>
       <c r="B482">
@@ -4456,7 +4511,7 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="3">
+      <c r="A483" s="2">
         <v>44248.04166666666</v>
       </c>
       <c r="B483">
@@ -4464,7 +4519,7 @@
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="3">
+      <c r="A484" s="2">
         <v>44248.08333333334</v>
       </c>
       <c r="B484">
@@ -4472,7 +4527,7 @@
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="3">
+      <c r="A485" s="2">
         <v>44248.125</v>
       </c>
       <c r="B485">
@@ -4480,7 +4535,7 @@
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="3">
+      <c r="A486" s="2">
         <v>44248.16666666666</v>
       </c>
       <c r="B486">
@@ -4488,7 +4543,7 @@
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="3">
+      <c r="A487" s="2">
         <v>44248.20833333334</v>
       </c>
       <c r="B487">
@@ -4496,7 +4551,7 @@
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="3">
+      <c r="A488" s="2">
         <v>44248.25</v>
       </c>
       <c r="B488">
@@ -4504,7 +4559,7 @@
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="3">
+      <c r="A489" s="2">
         <v>44248.29166666666</v>
       </c>
       <c r="B489">
@@ -4512,7 +4567,7 @@
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="3">
+      <c r="A490" s="2">
         <v>44248.33333333334</v>
       </c>
       <c r="B490">
@@ -4520,7 +4575,7 @@
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="3">
+      <c r="A491" s="2">
         <v>44248.375</v>
       </c>
       <c r="B491">
@@ -4528,7 +4583,7 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="3">
+      <c r="A492" s="2">
         <v>44248.41666666666</v>
       </c>
       <c r="B492">
@@ -4536,7 +4591,7 @@
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="3">
+      <c r="A493" s="2">
         <v>44248.45833333334</v>
       </c>
       <c r="B493">
@@ -4544,7 +4599,7 @@
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="3">
+      <c r="A494" s="2">
         <v>44248.5</v>
       </c>
       <c r="B494">
@@ -4552,7 +4607,7 @@
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="3">
+      <c r="A495" s="2">
         <v>44248.54166666666</v>
       </c>
       <c r="B495">
@@ -4560,7 +4615,7 @@
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="3">
+      <c r="A496" s="2">
         <v>44248.58333333334</v>
       </c>
       <c r="B496">
@@ -4568,7 +4623,7 @@
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="3">
+      <c r="A497" s="2">
         <v>44248.625</v>
       </c>
       <c r="B497">
@@ -4576,7 +4631,7 @@
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="3">
+      <c r="A498" s="2">
         <v>44248.66666666666</v>
       </c>
       <c r="B498">
@@ -4584,7 +4639,7 @@
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="3">
+      <c r="A499" s="2">
         <v>44248.70833333334</v>
       </c>
       <c r="B499">
@@ -4592,7 +4647,7 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="3">
+      <c r="A500" s="2">
         <v>44248.75</v>
       </c>
       <c r="B500">
@@ -4600,7 +4655,7 @@
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="3">
+      <c r="A501" s="2">
         <v>44248.79166666666</v>
       </c>
       <c r="B501">
@@ -4608,7 +4663,7 @@
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="3">
+      <c r="A502" s="2">
         <v>44248.83333333334</v>
       </c>
       <c r="B502">
@@ -4616,7 +4671,7 @@
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="3">
+      <c r="A503" s="2">
         <v>44248.875</v>
       </c>
       <c r="B503">
@@ -4624,7 +4679,7 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="3">
+      <c r="A504" s="2">
         <v>44248.91666666666</v>
       </c>
       <c r="B504">
@@ -4632,7 +4687,7 @@
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="3">
+      <c r="A505" s="2">
         <v>44248.95833333334</v>
       </c>
       <c r="B505">
@@ -4640,7 +4695,7 @@
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="3">
+      <c r="A506" s="2">
         <v>44249</v>
       </c>
       <c r="B506">
@@ -4648,7 +4703,7 @@
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="3">
+      <c r="A507" s="2">
         <v>44249.04166666666</v>
       </c>
       <c r="B507">
@@ -4656,7 +4711,7 @@
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="3">
+      <c r="A508" s="2">
         <v>44249.08333333334</v>
       </c>
       <c r="B508">
@@ -4664,7 +4719,7 @@
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="3">
+      <c r="A509" s="2">
         <v>44249.125</v>
       </c>
       <c r="B509">
@@ -4672,7 +4727,7 @@
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="3">
+      <c r="A510" s="2">
         <v>44249.16666666666</v>
       </c>
       <c r="B510">
@@ -4680,7 +4735,7 @@
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="3">
+      <c r="A511" s="2">
         <v>44249.20833333334</v>
       </c>
       <c r="B511">
@@ -4688,7 +4743,7 @@
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="3">
+      <c r="A512" s="2">
         <v>44249.25</v>
       </c>
       <c r="B512">
@@ -4696,7 +4751,7 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="3">
+      <c r="A513" s="2">
         <v>44249.29166666666</v>
       </c>
       <c r="B513">
@@ -4704,7 +4759,7 @@
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="3">
+      <c r="A514" s="2">
         <v>44249.33333333334</v>
       </c>
       <c r="B514">
@@ -4712,7 +4767,7 @@
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="3">
+      <c r="A515" s="2">
         <v>44249.375</v>
       </c>
       <c r="B515">
@@ -4720,7 +4775,7 @@
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="3">
+      <c r="A516" s="2">
         <v>44249.41666666666</v>
       </c>
       <c r="B516">
@@ -4728,7 +4783,7 @@
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="3">
+      <c r="A517" s="2">
         <v>44249.45833333334</v>
       </c>
       <c r="B517">
@@ -4736,7 +4791,7 @@
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="3">
+      <c r="A518" s="2">
         <v>44249.5</v>
       </c>
       <c r="B518">
@@ -4744,7 +4799,7 @@
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="3">
+      <c r="A519" s="2">
         <v>44249.54166666666</v>
       </c>
       <c r="B519">
@@ -4752,7 +4807,7 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="3">
+      <c r="A520" s="2">
         <v>44249.58333333334</v>
       </c>
       <c r="B520">
@@ -4760,7 +4815,7 @@
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="3">
+      <c r="A521" s="2">
         <v>44249.625</v>
       </c>
       <c r="B521">
@@ -4768,7 +4823,7 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="3">
+      <c r="A522" s="2">
         <v>44249.66666666666</v>
       </c>
       <c r="B522">
@@ -4776,7 +4831,7 @@
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="3">
+      <c r="A523" s="2">
         <v>44249.70833333334</v>
       </c>
       <c r="B523">
@@ -4784,7 +4839,7 @@
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="3">
+      <c r="A524" s="2">
         <v>44249.75</v>
       </c>
       <c r="B524">
@@ -4792,7 +4847,7 @@
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="3">
+      <c r="A525" s="2">
         <v>44249.79166666666</v>
       </c>
       <c r="B525">
@@ -4800,7 +4855,7 @@
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="3">
+      <c r="A526" s="2">
         <v>44249.83333333334</v>
       </c>
       <c r="B526">
@@ -4808,7 +4863,7 @@
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="3">
+      <c r="A527" s="2">
         <v>44249.875</v>
       </c>
       <c r="B527">
@@ -4816,7 +4871,7 @@
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="3">
+      <c r="A528" s="2">
         <v>44249.91666666666</v>
       </c>
       <c r="B528">
@@ -4824,7 +4879,7 @@
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="3">
+      <c r="A529" s="2">
         <v>44249.95833333334</v>
       </c>
       <c r="B529">
@@ -4832,7 +4887,7 @@
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="3">
+      <c r="A530" s="2">
         <v>44250</v>
       </c>
       <c r="B530">
@@ -4840,7 +4895,7 @@
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="3">
+      <c r="A531" s="2">
         <v>44250.04166666666</v>
       </c>
       <c r="B531">
@@ -4848,7 +4903,7 @@
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="3">
+      <c r="A532" s="2">
         <v>44250.08333333334</v>
       </c>
       <c r="B532">
@@ -4856,7 +4911,7 @@
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="3">
+      <c r="A533" s="2">
         <v>44250.125</v>
       </c>
       <c r="B533">
@@ -4864,7 +4919,7 @@
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="3">
+      <c r="A534" s="2">
         <v>44250.16666666666</v>
       </c>
       <c r="B534">
@@ -4872,7 +4927,7 @@
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="3">
+      <c r="A535" s="2">
         <v>44250.20833333334</v>
       </c>
       <c r="B535">
@@ -4880,7 +4935,7 @@
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="3">
+      <c r="A536" s="2">
         <v>44250.25</v>
       </c>
       <c r="B536">
@@ -4888,7 +4943,7 @@
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="3">
+      <c r="A537" s="2">
         <v>44250.29166666666</v>
       </c>
       <c r="B537">
@@ -4896,7 +4951,7 @@
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="3">
+      <c r="A538" s="2">
         <v>44250.33333333334</v>
       </c>
       <c r="B538">
@@ -4904,7 +4959,7 @@
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="3">
+      <c r="A539" s="2">
         <v>44250.375</v>
       </c>
       <c r="B539">
@@ -4912,7 +4967,7 @@
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="3">
+      <c r="A540" s="2">
         <v>44250.41666666666</v>
       </c>
       <c r="B540">
@@ -4920,7 +4975,7 @@
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="3">
+      <c r="A541" s="2">
         <v>44250.45833333334</v>
       </c>
       <c r="B541">
@@ -4928,7 +4983,7 @@
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="3">
+      <c r="A542" s="2">
         <v>44250.5</v>
       </c>
       <c r="B542">
@@ -4936,7 +4991,7 @@
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="3">
+      <c r="A543" s="2">
         <v>44250.54166666666</v>
       </c>
       <c r="B543">
@@ -4944,7 +4999,7 @@
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="3">
+      <c r="A544" s="2">
         <v>44250.58333333334</v>
       </c>
       <c r="B544">
@@ -4952,7 +5007,7 @@
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="3">
+      <c r="A545" s="2">
         <v>44250.625</v>
       </c>
       <c r="B545">
@@ -4960,7 +5015,7 @@
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="3">
+      <c r="A546" s="2">
         <v>44250.66666666666</v>
       </c>
       <c r="B546">
@@ -4968,7 +5023,7 @@
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="3">
+      <c r="A547" s="2">
         <v>44250.70833333334</v>
       </c>
       <c r="B547">
@@ -4976,7 +5031,7 @@
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="3">
+      <c r="A548" s="2">
         <v>44250.75</v>
       </c>
       <c r="B548">
@@ -4984,7 +5039,7 @@
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="3">
+      <c r="A549" s="2">
         <v>44250.79166666666</v>
       </c>
       <c r="B549">
@@ -4992,7 +5047,7 @@
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="3">
+      <c r="A550" s="2">
         <v>44250.83333333334</v>
       </c>
       <c r="B550">
@@ -5000,7 +5055,7 @@
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="3">
+      <c r="A551" s="2">
         <v>44250.875</v>
       </c>
       <c r="B551">
@@ -5008,7 +5063,7 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="3">
+      <c r="A552" s="2">
         <v>44250.91666666666</v>
       </c>
       <c r="B552">
@@ -5016,7 +5071,7 @@
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="3">
+      <c r="A553" s="2">
         <v>44250.95833333334</v>
       </c>
       <c r="B553">
@@ -5024,7 +5079,7 @@
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="3">
+      <c r="A554" s="2">
         <v>44251</v>
       </c>
       <c r="B554">
@@ -5032,7 +5087,7 @@
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="3">
+      <c r="A555" s="2">
         <v>44251.04166666666</v>
       </c>
       <c r="B555">
@@ -5040,7 +5095,7 @@
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="3">
+      <c r="A556" s="2">
         <v>44251.08333333334</v>
       </c>
       <c r="B556">
@@ -5048,7 +5103,7 @@
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="3">
+      <c r="A557" s="2">
         <v>44251.125</v>
       </c>
       <c r="B557">
@@ -5056,7 +5111,7 @@
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="3">
+      <c r="A558" s="2">
         <v>44251.16666666666</v>
       </c>
       <c r="B558">
@@ -5064,7 +5119,7 @@
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="3">
+      <c r="A559" s="2">
         <v>44251.20833333334</v>
       </c>
       <c r="B559">
@@ -5072,7 +5127,7 @@
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="3">
+      <c r="A560" s="2">
         <v>44251.25</v>
       </c>
       <c r="B560">
@@ -5080,7 +5135,7 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="3">
+      <c r="A561" s="2">
         <v>44251.29166666666</v>
       </c>
       <c r="B561">
@@ -5088,7 +5143,7 @@
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="3">
+      <c r="A562" s="2">
         <v>44251.33333333334</v>
       </c>
       <c r="B562">
@@ -5096,7 +5151,7 @@
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="3">
+      <c r="A563" s="2">
         <v>44251.375</v>
       </c>
       <c r="B563">
@@ -5104,7 +5159,7 @@
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="3">
+      <c r="A564" s="2">
         <v>44251.41666666666</v>
       </c>
       <c r="B564">
@@ -5112,7 +5167,7 @@
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="3">
+      <c r="A565" s="2">
         <v>44251.45833333334</v>
       </c>
       <c r="B565">
@@ -5120,7 +5175,7 @@
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="3">
+      <c r="A566" s="2">
         <v>44251.5</v>
       </c>
       <c r="B566">
@@ -5128,7 +5183,7 @@
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="3">
+      <c r="A567" s="2">
         <v>44251.54166666666</v>
       </c>
       <c r="B567">
@@ -5136,7 +5191,7 @@
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="3">
+      <c r="A568" s="2">
         <v>44251.58333333334</v>
       </c>
       <c r="B568">
@@ -5144,7 +5199,7 @@
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="3">
+      <c r="A569" s="2">
         <v>44251.625</v>
       </c>
       <c r="B569">
@@ -5152,7 +5207,7 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="3">
+      <c r="A570" s="2">
         <v>44251.66666666666</v>
       </c>
       <c r="B570">
@@ -5160,7 +5215,7 @@
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="3">
+      <c r="A571" s="2">
         <v>44251.70833333334</v>
       </c>
       <c r="B571">
@@ -5168,7 +5223,7 @@
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="3">
+      <c r="A572" s="2">
         <v>44251.75</v>
       </c>
       <c r="B572">
@@ -5176,7 +5231,7 @@
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="3">
+      <c r="A573" s="2">
         <v>44251.79166666666</v>
       </c>
       <c r="B573">
@@ -5184,7 +5239,7 @@
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="3">
+      <c r="A574" s="2">
         <v>44251.83333333334</v>
       </c>
       <c r="B574">
@@ -5192,7 +5247,7 @@
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="3">
+      <c r="A575" s="2">
         <v>44251.875</v>
       </c>
       <c r="B575">
@@ -5200,7 +5255,7 @@
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="3">
+      <c r="A576" s="2">
         <v>44251.91666666666</v>
       </c>
       <c r="B576">
@@ -5208,7 +5263,7 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="3">
+      <c r="A577" s="2">
         <v>44251.95833333334</v>
       </c>
       <c r="B577">
@@ -5216,7 +5271,7 @@
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="3">
+      <c r="A578" s="2">
         <v>44252</v>
       </c>
       <c r="B578">
@@ -5224,7 +5279,7 @@
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="3">
+      <c r="A579" s="2">
         <v>44252.04166666666</v>
       </c>
       <c r="B579">
@@ -5232,7 +5287,7 @@
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="3">
+      <c r="A580" s="2">
         <v>44252.08333333334</v>
       </c>
       <c r="B580">
@@ -5240,7 +5295,7 @@
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="3">
+      <c r="A581" s="2">
         <v>44252.125</v>
       </c>
       <c r="B581">
@@ -5248,7 +5303,7 @@
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="3">
+      <c r="A582" s="2">
         <v>44252.16666666666</v>
       </c>
       <c r="B582">
@@ -5256,7 +5311,7 @@
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="3">
+      <c r="A583" s="2">
         <v>44252.20833333334</v>
       </c>
       <c r="B583">
@@ -5264,7 +5319,7 @@
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="3">
+      <c r="A584" s="2">
         <v>44252.25</v>
       </c>
       <c r="B584">
@@ -5272,7 +5327,7 @@
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="3">
+      <c r="A585" s="2">
         <v>44252.29166666666</v>
       </c>
       <c r="B585">
@@ -5280,7 +5335,7 @@
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="3">
+      <c r="A586" s="2">
         <v>44252.33333333334</v>
       </c>
       <c r="B586">
@@ -5288,7 +5343,7 @@
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="3">
+      <c r="A587" s="2">
         <v>44252.375</v>
       </c>
       <c r="B587">
@@ -5296,7 +5351,7 @@
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="3">
+      <c r="A588" s="2">
         <v>44252.41666666666</v>
       </c>
       <c r="B588">
@@ -5304,7 +5359,7 @@
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="3">
+      <c r="A589" s="2">
         <v>44252.45833333334</v>
       </c>
       <c r="B589">
@@ -5312,7 +5367,7 @@
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="3">
+      <c r="A590" s="2">
         <v>44252.5</v>
       </c>
       <c r="B590">
@@ -5320,7 +5375,7 @@
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="3">
+      <c r="A591" s="2">
         <v>44252.54166666666</v>
       </c>
       <c r="B591">
@@ -5328,7 +5383,7 @@
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="3">
+      <c r="A592" s="2">
         <v>44252.58333333334</v>
       </c>
       <c r="B592">
@@ -5336,7 +5391,7 @@
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="3">
+      <c r="A593" s="2">
         <v>44252.625</v>
       </c>
       <c r="B593">
@@ -5344,7 +5399,7 @@
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="3">
+      <c r="A594" s="2">
         <v>44252.66666666666</v>
       </c>
       <c r="B594">
@@ -5352,7 +5407,7 @@
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="3">
+      <c r="A595" s="2">
         <v>44252.70833333334</v>
       </c>
       <c r="B595">
@@ -5360,7 +5415,7 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="3">
+      <c r="A596" s="2">
         <v>44252.75</v>
       </c>
       <c r="B596">
@@ -5368,7 +5423,7 @@
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="3">
+      <c r="A597" s="2">
         <v>44252.79166666666</v>
       </c>
       <c r="B597">
@@ -5376,7 +5431,7 @@
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="3">
+      <c r="A598" s="2">
         <v>44252.83333333334</v>
       </c>
       <c r="B598">
@@ -5384,7 +5439,7 @@
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="3">
+      <c r="A599" s="2">
         <v>44252.875</v>
       </c>
       <c r="B599">
@@ -5392,7 +5447,7 @@
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="3">
+      <c r="A600" s="2">
         <v>44252.91666666666</v>
       </c>
       <c r="B600">
@@ -5400,7 +5455,7 @@
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="3">
+      <c r="A601" s="2">
         <v>44252.95833333334</v>
       </c>
       <c r="B601">
@@ -5408,7 +5463,7 @@
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="3">
+      <c r="A602" s="2">
         <v>44253</v>
       </c>
       <c r="B602">
@@ -5416,7 +5471,7 @@
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="3">
+      <c r="A603" s="2">
         <v>44253.04166666666</v>
       </c>
       <c r="B603">
@@ -5424,7 +5479,7 @@
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="3">
+      <c r="A604" s="2">
         <v>44253.08333333334</v>
       </c>
       <c r="B604">
@@ -5432,7 +5487,7 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="3">
+      <c r="A605" s="2">
         <v>44253.125</v>
       </c>
       <c r="B605">
@@ -5440,7 +5495,7 @@
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="3">
+      <c r="A606" s="2">
         <v>44253.16666666666</v>
       </c>
       <c r="B606">
@@ -5448,7 +5503,7 @@
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="3">
+      <c r="A607" s="2">
         <v>44253.20833333334</v>
       </c>
       <c r="B607">
@@ -5456,7 +5511,7 @@
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="3">
+      <c r="A608" s="2">
         <v>44253.25</v>
       </c>
       <c r="B608">
@@ -5464,7 +5519,7 @@
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="3">
+      <c r="A609" s="2">
         <v>44253.29166666666</v>
       </c>
       <c r="B609">
@@ -5472,7 +5527,7 @@
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="3">
+      <c r="A610" s="2">
         <v>44253.33333333334</v>
       </c>
       <c r="B610">
@@ -5480,7 +5535,7 @@
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="3">
+      <c r="A611" s="2">
         <v>44253.375</v>
       </c>
       <c r="B611">
@@ -5488,7 +5543,7 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="3">
+      <c r="A612" s="2">
         <v>44253.41666666666</v>
       </c>
       <c r="B612">
@@ -5496,7 +5551,7 @@
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="3">
+      <c r="A613" s="2">
         <v>44253.45833333334</v>
       </c>
       <c r="B613">
@@ -5504,7 +5559,7 @@
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="3">
+      <c r="A614" s="2">
         <v>44253.5</v>
       </c>
       <c r="B614">
@@ -5512,7 +5567,7 @@
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="3">
+      <c r="A615" s="2">
         <v>44253.54166666666</v>
       </c>
       <c r="B615">
@@ -5520,7 +5575,7 @@
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="3">
+      <c r="A616" s="2">
         <v>44253.58333333334</v>
       </c>
       <c r="B616">
@@ -5528,7 +5583,7 @@
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="3">
+      <c r="A617" s="2">
         <v>44253.625</v>
       </c>
       <c r="B617">
@@ -5536,7 +5591,7 @@
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="3">
+      <c r="A618" s="2">
         <v>44253.66666666666</v>
       </c>
       <c r="B618">
@@ -5544,7 +5599,7 @@
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="3">
+      <c r="A619" s="2">
         <v>44253.70833333334</v>
       </c>
       <c r="B619">
@@ -5552,7 +5607,7 @@
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="3">
+      <c r="A620" s="2">
         <v>44253.75</v>
       </c>
       <c r="B620">
@@ -5560,7 +5615,7 @@
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="3">
+      <c r="A621" s="2">
         <v>44253.79166666666</v>
       </c>
       <c r="B621">
@@ -5568,7 +5623,7 @@
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="3">
+      <c r="A622" s="2">
         <v>44253.83333333334</v>
       </c>
       <c r="B622">
@@ -5576,7 +5631,7 @@
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="3">
+      <c r="A623" s="2">
         <v>44253.875</v>
       </c>
       <c r="B623">
@@ -5584,7 +5639,7 @@
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="3">
+      <c r="A624" s="2">
         <v>44253.91666666666</v>
       </c>
       <c r="B624">
@@ -5592,7 +5647,7 @@
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="3">
+      <c r="A625" s="2">
         <v>44253.95833333334</v>
       </c>
       <c r="B625">
@@ -5600,7 +5655,7 @@
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="3">
+      <c r="A626" s="2">
         <v>44254</v>
       </c>
       <c r="B626">
@@ -5608,7 +5663,7 @@
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="3">
+      <c r="A627" s="2">
         <v>44254.04166666666</v>
       </c>
       <c r="B627">
@@ -5616,7 +5671,7 @@
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="3">
+      <c r="A628" s="2">
         <v>44254.08333333334</v>
       </c>
       <c r="B628">
@@ -5624,7 +5679,7 @@
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="3">
+      <c r="A629" s="2">
         <v>44254.125</v>
       </c>
       <c r="B629">
@@ -5632,7 +5687,7 @@
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="3">
+      <c r="A630" s="2">
         <v>44254.16666666666</v>
       </c>
       <c r="B630">
@@ -5640,7 +5695,7 @@
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="3">
+      <c r="A631" s="2">
         <v>44254.20833333334</v>
       </c>
       <c r="B631">
@@ -5648,7 +5703,7 @@
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="3">
+      <c r="A632" s="2">
         <v>44254.25</v>
       </c>
       <c r="B632">
@@ -5656,7 +5711,7 @@
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="3">
+      <c r="A633" s="2">
         <v>44254.29166666666</v>
       </c>
       <c r="B633">
@@ -5664,7 +5719,7 @@
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="3">
+      <c r="A634" s="2">
         <v>44254.33333333334</v>
       </c>
       <c r="B634">
@@ -5672,7 +5727,7 @@
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="3">
+      <c r="A635" s="2">
         <v>44254.375</v>
       </c>
       <c r="B635">
@@ -5680,7 +5735,7 @@
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="3">
+      <c r="A636" s="2">
         <v>44254.41666666666</v>
       </c>
       <c r="B636">
@@ -5688,7 +5743,7 @@
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="3">
+      <c r="A637" s="2">
         <v>44254.45833333334</v>
       </c>
       <c r="B637">
@@ -5696,7 +5751,7 @@
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="3">
+      <c r="A638" s="2">
         <v>44254.5</v>
       </c>
       <c r="B638">
@@ -5704,7 +5759,7 @@
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="3">
+      <c r="A639" s="2">
         <v>44254.54166666666</v>
       </c>
       <c r="B639">
@@ -5712,7 +5767,7 @@
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="3">
+      <c r="A640" s="2">
         <v>44254.58333333334</v>
       </c>
       <c r="B640">
@@ -5720,7 +5775,7 @@
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="3">
+      <c r="A641" s="2">
         <v>44254.625</v>
       </c>
       <c r="B641">
@@ -5728,7 +5783,7 @@
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="3">
+      <c r="A642" s="2">
         <v>44254.66666666666</v>
       </c>
       <c r="B642">
@@ -5736,7 +5791,7 @@
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="3">
+      <c r="A643" s="2">
         <v>44254.70833333334</v>
       </c>
       <c r="B643">
@@ -5744,7 +5799,7 @@
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="3">
+      <c r="A644" s="2">
         <v>44254.75</v>
       </c>
       <c r="B644">
@@ -5752,7 +5807,7 @@
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="3">
+      <c r="A645" s="2">
         <v>44254.79166666666</v>
       </c>
       <c r="B645">
@@ -5760,7 +5815,7 @@
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="3">
+      <c r="A646" s="2">
         <v>44254.83333333334</v>
       </c>
       <c r="B646">
@@ -5768,7 +5823,7 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="3">
+      <c r="A647" s="2">
         <v>44254.875</v>
       </c>
       <c r="B647">
@@ -5776,7 +5831,7 @@
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="3">
+      <c r="A648" s="2">
         <v>44254.91666666666</v>
       </c>
       <c r="B648">
@@ -5784,7 +5839,7 @@
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="3">
+      <c r="A649" s="2">
         <v>44254.95833333334</v>
       </c>
       <c r="B649">
@@ -5792,7 +5847,7 @@
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="3">
+      <c r="A650" s="2">
         <v>44255</v>
       </c>
       <c r="B650">
@@ -5800,7 +5855,7 @@
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="3">
+      <c r="A651" s="2">
         <v>44255.04166666666</v>
       </c>
       <c r="B651">
@@ -5808,7 +5863,7 @@
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="3">
+      <c r="A652" s="2">
         <v>44255.08333333334</v>
       </c>
       <c r="B652">
@@ -5816,7 +5871,7 @@
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="3">
+      <c r="A653" s="2">
         <v>44255.125</v>
       </c>
       <c r="B653">
@@ -5824,7 +5879,7 @@
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="3">
+      <c r="A654" s="2">
         <v>44255.16666666666</v>
       </c>
       <c r="B654">
@@ -5832,7 +5887,7 @@
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="3">
+      <c r="A655" s="2">
         <v>44255.20833333334</v>
       </c>
       <c r="B655">
@@ -5840,7 +5895,7 @@
       </c>
     </row>
     <row r="656" spans="1:2">
-      <c r="A656" s="3">
+      <c r="A656" s="2">
         <v>44255.25</v>
       </c>
       <c r="B656">
@@ -5848,7 +5903,7 @@
       </c>
     </row>
     <row r="657" spans="1:2">
-      <c r="A657" s="3">
+      <c r="A657" s="2">
         <v>44255.29166666666</v>
       </c>
       <c r="B657">
@@ -5856,7 +5911,7 @@
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="3">
+      <c r="A658" s="2">
         <v>44255.33333333334</v>
       </c>
       <c r="B658">
@@ -5864,7 +5919,7 @@
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="3">
+      <c r="A659" s="2">
         <v>44255.375</v>
       </c>
       <c r="B659">
@@ -5872,7 +5927,7 @@
       </c>
     </row>
     <row r="660" spans="1:2">
-      <c r="A660" s="3">
+      <c r="A660" s="2">
         <v>44255.41666666666</v>
       </c>
       <c r="B660">
@@ -5880,7 +5935,7 @@
       </c>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="3">
+      <c r="A661" s="2">
         <v>44255.45833333334</v>
       </c>
       <c r="B661">
@@ -5888,7 +5943,7 @@
       </c>
     </row>
     <row r="662" spans="1:2">
-      <c r="A662" s="3">
+      <c r="A662" s="2">
         <v>44255.5</v>
       </c>
       <c r="B662">
@@ -5896,7 +5951,7 @@
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="3">
+      <c r="A663" s="2">
         <v>44255.54166666666</v>
       </c>
       <c r="B663">
@@ -5904,7 +5959,7 @@
       </c>
     </row>
     <row r="664" spans="1:2">
-      <c r="A664" s="3">
+      <c r="A664" s="2">
         <v>44255.58333333334</v>
       </c>
       <c r="B664">
@@ -5912,7 +5967,7 @@
       </c>
     </row>
     <row r="665" spans="1:2">
-      <c r="A665" s="3">
+      <c r="A665" s="2">
         <v>44255.625</v>
       </c>
       <c r="B665">
@@ -5920,7 +5975,7 @@
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="3">
+      <c r="A666" s="2">
         <v>44255.66666666666</v>
       </c>
       <c r="B666">
@@ -5928,7 +5983,7 @@
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="3">
+      <c r="A667" s="2">
         <v>44255.70833333334</v>
       </c>
       <c r="B667">
@@ -5936,7 +5991,7 @@
       </c>
     </row>
     <row r="668" spans="1:2">
-      <c r="A668" s="3">
+      <c r="A668" s="2">
         <v>44255.75</v>
       </c>
       <c r="B668">
@@ -5944,7 +5999,7 @@
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="3">
+      <c r="A669" s="2">
         <v>44255.79166666666</v>
       </c>
       <c r="B669">
@@ -5952,7 +6007,7 @@
       </c>
     </row>
     <row r="670" spans="1:2">
-      <c r="A670" s="3">
+      <c r="A670" s="2">
         <v>44255.83333333334</v>
       </c>
       <c r="B670">
@@ -5960,7 +6015,7 @@
       </c>
     </row>
     <row r="671" spans="1:2">
-      <c r="A671" s="3">
+      <c r="A671" s="2">
         <v>44255.875</v>
       </c>
       <c r="B671">
@@ -5968,7 +6023,7 @@
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="3">
+      <c r="A672" s="2">
         <v>44255.91666666666</v>
       </c>
       <c r="B672">
@@ -5976,7 +6031,7 @@
       </c>
     </row>
     <row r="673" spans="1:2">
-      <c r="A673" s="3">
+      <c r="A673" s="2">
         <v>44255.95833333334</v>
       </c>
       <c r="B673">
